--- a/_Verktøy_1ELR_2ELR_2019_2020.xlsx
+++ b/_Verktøy_1ELR_2ELR_2019_2020.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAF\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896CBD53-2E30-4DB5-8AC1-D45DF35FD694}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF23CE0-4D33-443D-8336-625C701B4B57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ElevregnskapUtstyr1ELR_Høst2018" sheetId="2" r:id="rId1"/>
     <sheet name="Leverandører" sheetId="3" r:id="rId2"/>
-    <sheet name="Bøker 2ELR" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
   <si>
     <t>Inntekter:</t>
   </si>
@@ -397,6 +396,21 @@
   </si>
   <si>
     <t>Elektro / Elektronikk / Blandet</t>
+  </si>
+  <si>
+    <t>Elektro / Automasjon</t>
+  </si>
+  <si>
+    <t>Sjekk CE-merke / om leverandør er til å stole på</t>
+  </si>
+  <si>
+    <t>Elektro / Automasjon / Elektronikk</t>
+  </si>
+  <si>
+    <t>Automasjon</t>
+  </si>
+  <si>
+    <t>Verktøy</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1614,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74553632-FB43-4194-86A6-E24596DE162F}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1673,7 +1687,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -1690,7 +1704,7 @@
         <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -1709,6 +1723,9 @@
       <c r="B5" t="s">
         <v>57</v>
       </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
       <c r="D5" t="s">
         <v>105</v>
       </c>
@@ -1723,6 +1740,9 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
       <c r="D6" t="s">
         <v>105</v>
       </c>
@@ -1859,6 +1879,9 @@
       <c r="B14" t="s">
         <v>57</v>
       </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
       <c r="D14" t="s">
         <v>105</v>
       </c>
@@ -1873,6 +1896,9 @@
       <c r="B15" t="s">
         <v>57</v>
       </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
       <c r="D15" t="s">
         <v>105</v>
       </c>
@@ -1907,6 +1933,9 @@
       <c r="C17" t="s">
         <v>58</v>
       </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
       <c r="E17" t="s">
         <v>97</v>
       </c>
@@ -1924,6 +1953,9 @@
       <c r="C18" t="s">
         <v>67</v>
       </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
       <c r="E18" t="s">
         <v>63</v>
       </c>
@@ -1955,6 +1987,9 @@
       <c r="C20" t="s">
         <v>58</v>
       </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
       <c r="E20" t="s">
         <v>59</v>
       </c>
@@ -2006,6 +2041,9 @@
       <c r="C23" t="s">
         <v>58</v>
       </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
       <c r="E23" t="s">
         <v>59</v>
       </c>
@@ -2023,6 +2061,9 @@
       <c r="C24" t="s">
         <v>58</v>
       </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
       <c r="E24" t="s">
         <v>59</v>
       </c>
@@ -2034,6 +2075,9 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
       <c r="D25" t="s">
         <v>105</v>
       </c>
@@ -2048,6 +2092,9 @@
       <c r="B26" t="s">
         <v>57</v>
       </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
       <c r="D26" t="s">
         <v>105</v>
       </c>
@@ -2065,6 +2112,9 @@
       <c r="C27" t="s">
         <v>58</v>
       </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
       <c r="E27" t="s">
         <v>59</v>
       </c>
@@ -2079,6 +2129,9 @@
       <c r="B28" t="s">
         <v>57</v>
       </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
       <c r="D28" t="s">
         <v>105</v>
       </c>
@@ -2113,6 +2166,9 @@
       <c r="C30" t="s">
         <v>58</v>
       </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
       <c r="E30" t="s">
         <v>59</v>
       </c>
@@ -2124,6 +2180,9 @@
       <c r="B31" t="s">
         <v>57</v>
       </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
       <c r="D31" t="s">
         <v>105</v>
       </c>
@@ -2141,6 +2200,9 @@
       <c r="C32" t="s">
         <v>58</v>
       </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
       <c r="E32" t="s">
         <v>59</v>
       </c>
@@ -2155,6 +2217,9 @@
       <c r="B33" t="s">
         <v>57</v>
       </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
       <c r="D33" t="s">
         <v>105</v>
       </c>
@@ -2169,6 +2234,9 @@
       <c r="B34" t="s">
         <v>57</v>
       </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
       <c r="D34" t="s">
         <v>105</v>
       </c>
@@ -2183,6 +2251,9 @@
       <c r="B35" t="s">
         <v>57</v>
       </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
       <c r="D35" t="s">
         <v>105</v>
       </c>
@@ -2199,6 +2270,9 @@
       </c>
       <c r="C36" t="s">
         <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
       </c>
       <c r="E36" t="s">
         <v>94</v>
@@ -2230,43 +2304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F671BBBC-461C-4C1F-B828-146BFDB3A4C5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Kommentar xmlns="0431e43e-dcd7-4536-abea-5fb81c96588e" xsi:nil="true"/>
-    <Forslag_x0020_karakter_x0020_Petter xmlns="0431e43e-dcd7-4536-abea-5fb81c96588e" xsi:nil="true"/>
-    <Karakter_x0020_fremf_x00f8_ring xmlns="0431e43e-dcd7-4536-abea-5fb81c96588e" xsi:nil="true"/>
-    <Dato xmlns="0431e43e-dcd7-4536-abea-5fb81c96588e" xsi:nil="true"/>
-    <Karakter_x0020_skriftelig xmlns="0431e43e-dcd7-4536-abea-5fb81c96588e" xsi:nil="true"/>
-    <Tekst xmlns="0431e43e-dcd7-4536-abea-5fb81c96588e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010093848318F01FFC4A96381909532B2949" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="00a6056487381d30724e6cbd5d90d6c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="02888fe1-7cec-4f41-84cc-8be3d6639e71" xmlns:ns3="0431e43e-dcd7-4536-abea-5fb81c96588e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7768c0b9536657fd69dbbade2ad4a4c0" ns2:_="" ns3:_="">
     <xsd:import namespace="02888fe1-7cec-4f41-84cc-8be3d6639e71"/>
@@ -2516,10 +2554,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Kommentar xmlns="0431e43e-dcd7-4536-abea-5fb81c96588e" xsi:nil="true"/>
+    <Forslag_x0020_karakter_x0020_Petter xmlns="0431e43e-dcd7-4536-abea-5fb81c96588e" xsi:nil="true"/>
+    <Karakter_x0020_fremf_x00f8_ring xmlns="0431e43e-dcd7-4536-abea-5fb81c96588e" xsi:nil="true"/>
+    <Dato xmlns="0431e43e-dcd7-4536-abea-5fb81c96588e" xsi:nil="true"/>
+    <Karakter_x0020_skriftelig xmlns="0431e43e-dcd7-4536-abea-5fb81c96588e" xsi:nil="true"/>
+    <Tekst xmlns="0431e43e-dcd7-4536-abea-5fb81c96588e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C32734D1-3B8A-435B-ADC4-E27A6E4201B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5513CC2-32E9-48A3-A420-F2ECF520E284}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="02888fe1-7cec-4f41-84cc-8be3d6639e71"/>
+    <ds:schemaRef ds:uri="0431e43e-dcd7-4536-abea-5fb81c96588e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2542,20 +2613,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5513CC2-32E9-48A3-A420-F2ECF520E284}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C32734D1-3B8A-435B-ADC4-E27A6E4201B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="02888fe1-7cec-4f41-84cc-8be3d6639e71"/>
-    <ds:schemaRef ds:uri="0431e43e-dcd7-4536-abea-5fb81c96588e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>